--- a/biology/Botanique/Agave_indagatorum/Agave_indagatorum.xlsx
+++ b/biology/Botanique/Agave_indagatorum/Agave_indagatorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave indagatorum est une espèce de plantes à fleurs de la famille des Asparagaceae (sous-famille des Agavaceae) et du genre des Agaves.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Agave indagatorum se présente sous la forme d'une rosette assez ouverte, avec des feuilles vert-gris à grises, concaves, lancéolées, lisses, allant en se rétrécissant, avec des bords munis d'épines (droites et coniques) et se finissant par une épine terminale effilée brunâtre. Elles mesurent de 150 à 250 cm de longueur et environ 20 à 25 cm de largeur maximales. De manière occasionnelle, la plante produit une remarquable hampe florale paniculée pouvant mesurer jusqu'à 9 mètres de hauteur avec des fleurs[2].
-L'espèce est récoltée pour la première fois en 1907 par les botanistes américains Nathaniel Lord Britton et Charles Frederick Millspaugh sur l'île de San Salvador aux Bahamas mais a été décrite comme espèce à part entière en 1913 par le botaniste américain William Trelease[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Agave indagatorum se présente sous la forme d'une rosette assez ouverte, avec des feuilles vert-gris à grises, concaves, lancéolées, lisses, allant en se rétrécissant, avec des bords munis d'épines (droites et coniques) et se finissant par une épine terminale effilée brunâtre. Elles mesurent de 150 à 250 cm de longueur et environ 20 à 25 cm de largeur maximales. De manière occasionnelle, la plante produit une remarquable hampe florale paniculée pouvant mesurer jusqu'à 9 mètres de hauteur avec des fleurs.
+L'espèce est récoltée pour la première fois en 1907 par les botanistes américains Nathaniel Lord Britton et Charles Frederick Millspaugh sur l'île de San Salvador aux Bahamas mais a été décrite comme espèce à part entière en 1913 par le botaniste américain William Trelease.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire des Bahamas[3] où elle vit dans les milieux ensoleillés et drainés avec un climat humide.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire des Bahamas où elle vit dans les milieux ensoleillés et drainés avec un climat humide.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce ne présente pas de synonyme[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce ne présente pas de synonyme.
 </t>
         </is>
       </c>
